--- a/biology/Médecine/Carcinome_neuroendocrine_à_cellules_géantes_du_poumon/Carcinome_neuroendocrine_à_cellules_géantes_du_poumon.xlsx
+++ b/biology/Médecine/Carcinome_neuroendocrine_à_cellules_géantes_du_poumon/Carcinome_neuroendocrine_à_cellules_géantes_du_poumon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carcinome_neuroendocrine_%C3%A0_cellules_g%C3%A9antes_du_poumon</t>
+          <t>Carcinome_neuroendocrine_à_cellules_géantes_du_poumon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carcinome neuroendocrine à grandes cellules du poumon représente 3 % des cancers pulmonaires. La plupart de ces tumeurs se développent en périphérie du parenchyme pulmonaire et partagent les symptômes et la présentation clinique des autres carcinomes non à petites cellules.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carcinome_neuroendocrine_%C3%A0_cellules_g%C3%A9antes_du_poumon</t>
+          <t>Carcinome_neuroendocrine_à_cellules_géantes_du_poumon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’âge moyen au diagnostic est de 65 ans et la plupart des patients sont fumeurs et de genre masculin. La production d’hormones ectopiques est très rare. Ils se présentent souvent au diagnostic avec des formes étendues au stade III-IV. Cliniquement, ce carcinome neuroendocrine se différencie de la forme à petites cellules par l’absence de production ectopique d’hormone.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carcinome_neuroendocrine_%C3%A0_cellules_g%C3%A9antes_du_poumon</t>
+          <t>Carcinome_neuroendocrine_à_cellules_géantes_du_poumon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,19 +558,93 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Macroscopie
-Tumeur de localisation centrale ou périphérique. Taille moyenne: 3 cm (1,3 à 10 cm).
+          <t>Macroscopie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tumeur de localisation centrale ou périphérique. Taille moyenne: 3 cm (1,3 à 10 cm).
 La tumeur peut occuper tout un poumon avec des remaniements nécrotico-hémorragiques fréquents et étendus.
-Microscopie
-Carcinome à grandes cellules
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carcinome_neuroendocrine_à_cellules_géantes_du_poumon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcinome_neuroendocrine_%C3%A0_cellules_g%C3%A9antes_du_poumon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie pathologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Microscopie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Carcinome à grandes cellules
 Phénotype neuroendocrine: agencement en nids, travées, pseudo-rosettes ou agencement palissadique périvasculaire.
 Activité mitotique importante (&gt; 11 mitoses/2 mm2 - moyenne : 75 mitoses).
 Cellules volumineuses, polygonales.
 Rapport nucléocytoplasmique bas.
 Chromatine grossière ou vésiculaire avec nucléoles marqués.
-Nécrose étendue centrolobulaire ou en carte de géographie.
-Diagnostic différentiel morphologique
-Carcinome pulmonaire à petites cellules (Carcinome neuroendocrine à petites cellules)
+Nécrose étendue centrolobulaire ou en carte de géographie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carcinome_neuroendocrine_à_cellules_géantes_du_poumon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcinome_neuroendocrine_%C3%A0_cellules_g%C3%A9antes_du_poumon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie pathologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel morphologique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carcinome pulmonaire à petites cellules (Carcinome neuroendocrine à petites cellules)
 Tumeur carcinoïde atypique
 L’activité mitotique est plus faible, inférieur à 10 pour 10 champs.
 Pas de nécrose extensive
